--- a/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t162.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t162.xlsx
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0481</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0003</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8923</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.1153</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.8923</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -742,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1153</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H10">
         <v>0.0001</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.2504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1216</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0481</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.0037</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2504</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0481</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -982,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0003</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1035,16 +1035,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8923</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.1126</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.8923</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1126</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H10">
         <v>0.0001</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.2481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1160,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1216</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0481</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.0037</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2481</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1240,31 +1240,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0363</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008699999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008500000000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="J2">
-        <v>0.0219</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0363</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1284,22 +1284,22 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.0007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008699999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.008500000000000001</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.0618</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.0159</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1447,10 +1447,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.0618</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1471,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0001</v>
+        <v>0.0259</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1482,22 +1482,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.0159</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1506,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0002</v>
+        <v>0.0959</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1517,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0219</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1535,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0001</v>
+        <v>0.0259</v>
       </c>
       <c r="I10">
-        <v>0.0002</v>
+        <v>0.0959</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.5168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1552,16 +1552,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0007</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="J11">
-        <v>0.5168</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.0063</v>
+        <v>0.0617</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0001</v>
+        <v>0.0012</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0001</v>
+        <v>0.0012</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1775,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0063</v>
+        <v>0.0617</v>
       </c>
       <c r="D6">
-        <v>0.0001</v>
+        <v>0.0012</v>
       </c>
       <c r="E6">
-        <v>0.0001</v>
+        <v>0.0012</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3276</v>
+        <v>0.2765</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3276</v>
+        <v>0.2765</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.278</v>
+        <v>0.3864</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.5518999999999999</v>
+        <v>0.5625</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.278</v>
+        <v>0.3864</v>
       </c>
       <c r="I10">
-        <v>0.5518999999999999</v>
+        <v>0.5625</v>
       </c>
       <c r="J10">
         <v>1</v>
